--- a/province2015/pre-proc/2_AO/6B_ao_apc.xlsx
+++ b/province2015/pre-proc/2_AO/6B_ao_apc.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26330"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="200" windowWidth="14800" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,19 +60,21 @@
     <t>HN</t>
   </si>
   <si>
-    <t>NO.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -79,14 +86,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -118,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,9 +136,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -430,19 +440,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,97 +460,105 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="4">
+        <v>0.1288022813688213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="4">
+        <v>6.1874806641229241E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="4">
+        <v>6.5074510314309886E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="4">
+        <v>7.4430338882229691E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="4">
+        <v>6.7495739331454696E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="4">
+        <v>1.4218009478672985E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="4">
+        <v>9.648518884721391E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="4">
+        <v>8.3189902467010898E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="4">
+        <v>2.7893030229071511E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="4">
+        <v>1.4122645969826661E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>43</v>
-      </c>
+      <c r="B12" s="4">
+        <v>2.3596553805630249E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -550,10 +568,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -563,9 +586,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>